--- a/Example Excel/2020年一季度.xlsx
+++ b/Example Excel/2020年一季度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF78A53-9B18-AD4D-9DAA-40EA7B200330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9EB4E2-C8C4-DD48-9F0E-EBC9E139634C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21000" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>行号</t>
   </si>
@@ -41,16 +41,37 @@
   </si>
   <si>
     <t>2020.00.00 00:00:00</t>
+  </si>
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>col_4</t>
+  </si>
+  <si>
+    <t>col_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,19 +378,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,123 +406,350 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>733101</v>
       </c>
       <c r="B2">
-        <v>233333</v>
-      </c>
-      <c r="C2">
-        <v>233333</v>
-      </c>
-      <c r="D2">
-        <v>233333</v>
-      </c>
-      <c r="E2">
-        <v>233333</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>733121</v>
       </c>
       <c r="B3">
-        <v>233333</v>
-      </c>
-      <c r="C3">
-        <v>233333</v>
-      </c>
-      <c r="D3">
-        <v>233333</v>
-      </c>
-      <c r="E3">
-        <v>233333</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>733131</v>
       </c>
       <c r="B4">
-        <v>233333</v>
-      </c>
-      <c r="C4">
-        <v>233333</v>
-      </c>
-      <c r="D4">
-        <v>233333</v>
-      </c>
-      <c r="E4">
-        <v>233333</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>733141</v>
       </c>
       <c r="B5">
-        <v>233333</v>
-      </c>
-      <c r="C5">
-        <v>233333</v>
-      </c>
-      <c r="D5">
-        <v>233333</v>
-      </c>
-      <c r="E5">
-        <v>233333</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>733151</v>
       </c>
       <c r="B6">
-        <v>233333</v>
-      </c>
-      <c r="C6">
-        <v>233333</v>
-      </c>
-      <c r="D6">
-        <v>233333</v>
-      </c>
-      <c r="E6">
-        <v>233333</v>
-      </c>
-      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>733101</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>733121</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>733131</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>733141</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>733151</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>733131</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>733141</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>733151</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>733101</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>733121</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>733131</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>733141</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>733101</v>
+      </c>
+      <c r="B19">
+        <v>233333</v>
+      </c>
+      <c r="C19">
+        <v>233333</v>
+      </c>
+      <c r="D19">
+        <v>233333</v>
+      </c>
+      <c r="E19">
+        <v>233333</v>
+      </c>
+      <c r="F19">
+        <v>233333</v>
+      </c>
+      <c r="G19">
+        <v>233333</v>
+      </c>
+      <c r="H19">
+        <v>233333</v>
+      </c>
+      <c r="I19">
+        <v>233333</v>
+      </c>
+      <c r="J19">
+        <v>233333</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>733121</v>
+      </c>
+      <c r="B20">
+        <v>233333</v>
+      </c>
+      <c r="C20">
+        <v>233333</v>
+      </c>
+      <c r="D20">
+        <v>233333</v>
+      </c>
+      <c r="E20">
+        <v>233333</v>
+      </c>
+      <c r="F20">
+        <v>233333</v>
+      </c>
+      <c r="G20">
+        <v>233333</v>
+      </c>
+      <c r="H20">
+        <v>233333</v>
+      </c>
+      <c r="I20">
+        <v>233333</v>
+      </c>
+      <c r="J20">
+        <v>233333</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>733131</v>
+      </c>
+      <c r="B21">
+        <v>233333</v>
+      </c>
+      <c r="C21">
+        <v>233333</v>
+      </c>
+      <c r="D21">
+        <v>233333</v>
+      </c>
+      <c r="E21">
+        <v>233333</v>
+      </c>
+      <c r="F21">
+        <v>233333</v>
+      </c>
+      <c r="G21">
+        <v>233333</v>
+      </c>
+      <c r="H21">
+        <v>233333</v>
+      </c>
+      <c r="I21">
+        <v>233333</v>
+      </c>
+      <c r="J21">
+        <v>233333</v>
+      </c>
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>733141</v>
+      </c>
+      <c r="B22">
+        <v>233333</v>
+      </c>
+      <c r="C22">
+        <v>233333</v>
+      </c>
+      <c r="D22">
+        <v>233333</v>
+      </c>
+      <c r="E22">
+        <v>233333</v>
+      </c>
+      <c r="F22">
+        <v>233333</v>
+      </c>
+      <c r="G22">
+        <v>233333</v>
+      </c>
+      <c r="H22">
+        <v>233333</v>
+      </c>
+      <c r="I22">
+        <v>233333</v>
+      </c>
+      <c r="J22">
+        <v>233333</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>733151</v>
+      </c>
+      <c r="B23">
+        <v>233333</v>
+      </c>
+      <c r="C23">
+        <v>233333</v>
+      </c>
+      <c r="D23">
+        <v>233333</v>
+      </c>
+      <c r="E23">
+        <v>233333</v>
+      </c>
+      <c r="F23">
+        <v>233333</v>
+      </c>
+      <c r="G23">
+        <v>233333</v>
+      </c>
+      <c r="H23">
+        <v>233333</v>
+      </c>
+      <c r="I23">
+        <v>233333</v>
+      </c>
+      <c r="J23">
+        <v>233333</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Example Excel/2020年一季度.xlsx
+++ b/Example Excel/2020年一季度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9EB4E2-C8C4-DD48-9F0E-EBC9E139634C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EB6C78-2751-894C-A1B9-165710525F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21000" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>行号</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>XXXX</t>
-  </si>
-  <si>
-    <t>2020.00.00 00:00:00</t>
   </si>
   <si>
     <t>col_1</t>
@@ -99,10 +96,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,14 +378,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -407,19 +406,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -592,8 +591,8 @@
       <c r="K19" t="s">
         <v>5</v>
       </c>
-      <c r="L19" t="s">
-        <v>6</v>
+      <c r="L19" s="1">
+        <v>44582.590162037035</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -630,8 +629,8 @@
       <c r="K20" t="s">
         <v>5</v>
       </c>
-      <c r="L20" t="s">
-        <v>6</v>
+      <c r="L20" s="1">
+        <v>44582.590162037035</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -668,8 +667,8 @@
       <c r="K21" t="s">
         <v>5</v>
       </c>
-      <c r="L21" t="s">
-        <v>6</v>
+      <c r="L21" s="1">
+        <v>44582.590162037035</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -706,8 +705,8 @@
       <c r="K22" t="s">
         <v>5</v>
       </c>
-      <c r="L22" t="s">
-        <v>6</v>
+      <c r="L22" s="1">
+        <v>44582.590162037035</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -744,8 +743,8 @@
       <c r="K23" t="s">
         <v>5</v>
       </c>
-      <c r="L23" t="s">
-        <v>6</v>
+      <c r="L23" s="1">
+        <v>44582.590162037035</v>
       </c>
     </row>
   </sheetData>
